--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Категория</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Дата</t>
         </is>
       </c>
@@ -465,7 +470,12 @@
           <t>+7 (666) 666-66-66</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Бракоразводный процесс</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>45627.6792854201</v>
       </c>
     </row>

--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>апвап</t>
+          <t xml:space="preserve">Ислам </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+7 (666) 666-66-66</t>
+          <t>+7 (898) 955-76-44</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Бракоразводный процесс</t>
+          <t>Земельные споры</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45627.6792854201</v>
+        <v>45629.79333941897</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Темирхан</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+7 (898) 947-19-46</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Земельные споры</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45629.79415100649</v>
       </c>
     </row>
   </sheetData>
